--- a/documentation/build_orders/zerg/hydra_ling_bane.xlsx
+++ b/documentation/build_orders/zerg/hydra_ling_bane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB5D46-FC50-4717-9EFA-699B34102CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C7E81-E5A2-41BD-839F-FF19F4F94D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8265" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +523,9 @@
       <c r="C2">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -534,6 +537,9 @@
       <c r="C3">
         <v>48</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -544,6 +550,9 @@
       </c>
       <c r="C4">
         <v>70</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,6 +565,9 @@
       <c r="C5">
         <v>73</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -567,6 +579,9 @@
       <c r="C6">
         <v>120</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -578,6 +593,9 @@
       <c r="C7">
         <v>120</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -589,6 +607,9 @@
       <c r="C8">
         <v>121</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -600,6 +621,9 @@
       <c r="C9">
         <v>121</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -611,6 +635,9 @@
       <c r="C10">
         <v>121</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -621,6 +648,9 @@
       </c>
       <c r="C11">
         <v>121</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,6 +663,9 @@
       <c r="C12">
         <v>131</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -643,6 +676,9 @@
       </c>
       <c r="C13">
         <v>132</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,6 +691,9 @@
       <c r="C14">
         <v>152</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -666,6 +705,9 @@
       <c r="C15">
         <v>166</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -677,8 +719,11 @@
       <c r="C16">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -688,8 +733,11 @@
       <c r="C17">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -699,8 +747,11 @@
       <c r="C18">
         <v>192</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -710,8 +761,11 @@
       <c r="C19">
         <v>207</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -721,8 +775,11 @@
       <c r="C20">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -732,8 +789,11 @@
       <c r="C21">
         <v>227</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -743,8 +803,11 @@
       <c r="C22">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -754,8 +817,11 @@
       <c r="C23">
         <v>237</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -765,8 +831,11 @@
       <c r="C24">
         <v>237</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -776,8 +845,11 @@
       <c r="C25">
         <v>237</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -787,8 +859,11 @@
       <c r="C26">
         <v>237</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -798,8 +873,11 @@
       <c r="C27">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -809,8 +887,11 @@
       <c r="C28">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -820,8 +901,11 @@
       <c r="C29">
         <v>237</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -831,8 +915,11 @@
       <c r="C30">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -842,8 +929,11 @@
       <c r="C31">
         <v>251</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -853,8 +943,11 @@
       <c r="C32">
         <v>251</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -864,8 +957,11 @@
       <c r="C33">
         <v>251</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -875,8 +971,11 @@
       <c r="C34">
         <v>251</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -886,8 +985,11 @@
       <c r="C35">
         <v>276</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -897,8 +999,11 @@
       <c r="C36">
         <v>287</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -908,8 +1013,11 @@
       <c r="C37">
         <v>294</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -919,8 +1027,11 @@
       <c r="C38">
         <v>299</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -930,8 +1041,11 @@
       <c r="C39">
         <v>299</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -941,8 +1055,11 @@
       <c r="C40">
         <v>299</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -952,8 +1069,11 @@
       <c r="C41">
         <v>303</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -963,8 +1083,11 @@
       <c r="C42">
         <v>303</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -974,8 +1097,11 @@
       <c r="C43">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -985,8 +1111,11 @@
       <c r="C44">
         <v>303</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -996,8 +1125,11 @@
       <c r="C45">
         <v>309</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1007,8 +1139,11 @@
       <c r="C46">
         <v>309</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1018,8 +1153,11 @@
       <c r="C47">
         <v>334</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1029,8 +1167,11 @@
       <c r="C48">
         <v>334</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1040,8 +1181,11 @@
       <c r="C49">
         <v>342</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1051,8 +1195,11 @@
       <c r="C50">
         <v>344</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1062,8 +1209,11 @@
       <c r="C51">
         <v>348</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1223,11 @@
       <c r="C52">
         <v>362</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1237,11 @@
       <c r="C53">
         <v>366</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1095,8 +1251,11 @@
       <c r="C54">
         <v>378</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1106,8 +1265,11 @@
       <c r="C55">
         <v>388</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1117,8 +1279,11 @@
       <c r="C56">
         <v>391</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1128,8 +1293,11 @@
       <c r="C57">
         <v>411</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1139,8 +1307,11 @@
       <c r="C58">
         <v>429</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -1150,8 +1321,11 @@
       <c r="C59">
         <v>438</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1161,8 +1335,11 @@
       <c r="C60">
         <v>484</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1172,8 +1349,11 @@
       <c r="C61">
         <v>490</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -1183,8 +1363,11 @@
       <c r="C62">
         <v>502</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1194,8 +1377,11 @@
       <c r="C63">
         <v>536</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1205,8 +1391,11 @@
       <c r="C64">
         <v>549</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1216,8 +1405,11 @@
       <c r="C65">
         <v>549</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1227,8 +1419,11 @@
       <c r="C66">
         <v>549</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1238,8 +1433,11 @@
       <c r="C67">
         <v>549</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1249,8 +1447,11 @@
       <c r="C68">
         <v>549</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1260,8 +1461,11 @@
       <c r="C69">
         <v>549</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1271,8 +1475,11 @@
       <c r="C70">
         <v>573</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1282,8 +1489,11 @@
       <c r="C71">
         <v>580</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1293,8 +1503,11 @@
       <c r="C72">
         <v>580</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1303,6 +1516,9 @@
       </c>
       <c r="C73">
         <v>580</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
